--- a/Project9/CH4/reactants/H2/h2_+.xlsx
+++ b/Project9/CH4/reactants/H2/h2_+.xlsx
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.849</v>
+        <v>7.866</v>
       </c>
       <c r="C2" t="n">
         <v>4.968</v>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.367</v>
+        <v>6.385</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.70851</v>
+        <v>1.70861</v>
       </c>
       <c r="C4" t="n">
-        <v>0.232619</v>
+        <v>0.232642</v>
       </c>
       <c r="D4" t="n">
-        <v>0.535625</v>
+        <v>0.535679</v>
       </c>
     </row>
     <row r="5">
@@ -623,13 +623,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.13355</v>
+        <v>4.01254</v>
       </c>
       <c r="C5" t="n">
-        <v>0.616323</v>
+        <v>0.603419</v>
       </c>
       <c r="D5" t="n">
-        <v>1.419136</v>
+        <v>1.389424</v>
       </c>
     </row>
     <row r="6">
@@ -639,13 +639,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>192175</v>
+        <v>192185</v>
       </c>
       <c r="C6" t="n">
-        <v>5.283697</v>
+        <v>5.28372</v>
       </c>
       <c r="D6" t="n">
-        <v>12.166161</v>
+        <v>12.166215</v>
       </c>
     </row>
     <row r="7">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.15093e-05</v>
+        <v>2.08785e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>-4.667374</v>
+        <v>-4.680301</v>
       </c>
       <c r="D7" t="n">
-        <v>-10.747025</v>
+        <v>-10.776791</v>
       </c>
     </row>
     <row r="8">
@@ -708,13 +708,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.17547710698</v>
+        <v>-1.17853400664</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.17548238441</v>
+        <v>-1.17853933408</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.17548238441</v>
+        <v>-1.17853933408</v>
       </c>
     </row>
     <row r="4">
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.99266</v>
+        <v>0.99271</v>
       </c>
       <c r="C11" t="n">
-        <v>0.99266</v>
+        <v>0.99271</v>
       </c>
     </row>
     <row r="13">
@@ -802,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>1818.0834249</v>
+        <v>1817.9852961</v>
       </c>
       <c r="C23" t="n">
-        <v>1818.0834249</v>
+        <v>1817.9852961</v>
       </c>
     </row>
     <row r="25">
@@ -817,7 +817,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>26641.4</v>
+        <v>26715.2</v>
       </c>
     </row>
     <row r="28">
@@ -829,7 +829,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.36746</v>
+        <v>6.38509</v>
       </c>
     </row>
     <row r="31">
@@ -841,7 +841,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6408.45</v>
+        <v>6426.2</v>
       </c>
     </row>
     <row r="34">
@@ -853,7 +853,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.010147</v>
+        <v>0.010175</v>
       </c>
     </row>
     <row r="37">
@@ -865,7 +865,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.012508</v>
+        <v>0.012536</v>
       </c>
     </row>
     <row r="40">
@@ -877,7 +877,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.013452</v>
+        <v>0.01348</v>
       </c>
     </row>
     <row r="43">
@@ -889,7 +889,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-0.00134</v>
+        <v>-0.001312</v>
       </c>
     </row>
     <row r="46">
@@ -901,7 +901,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4454.102</v>
+        <v>4466.4384</v>
       </c>
     </row>
     <row r="49">
@@ -925,7 +925,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>11.7803</v>
+        <v>11.8456</v>
       </c>
     </row>
     <row r="55">
